--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_1997.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_1997.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>427.16000000000003</t>
+          <t>427.16</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>2147.4899999999998</t>
+          <t>2147.49</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>5554.6899999999996</t>
+          <t>5554.69</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>984.30999999999995</t>
+          <t>984.31</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>2699.3099999999999</t>
+          <t>2699.31</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>296.73000000000002</t>
+          <t>296.73</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>271.29000000000002</t>
+          <t>271.29</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>1526.3599999999999</t>
+          <t>1526.36</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>3748.4899999999998</t>
+          <t>3748.49</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>1984.4300000000001</t>
+          <t>1984.43</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>162890.20999999999</t>
+          <t>162890.21</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>101.70999999999999</t>
+          <t>101.71</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>2617.5999999999999</t>
+          <t>2617.6</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>44609.370000000003</t>
+          <t>44609.37</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>475.06999999999999</t>
+          <t>475.07</t>
         </is>
       </c>
       <c r="E80" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
-          <t>3091.6999999999998</t>
+          <t>3091.7</t>
         </is>
       </c>
       <c r="E81" s="0" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>12538.950000000001</t>
+          <t>12538.95</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>135291.26000000001</t>
+          <t>135291.26</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>44613.699999999997</t>
+          <t>44613.7</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>90.480000000000004</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="E91" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>3798.8299999999999</t>
+          <t>3798.83</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>529.65999999999997</t>
+          <t>529.66</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>5026.6000000000004</t>
+          <t>5026.6</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>470309.27000000002</t>
+          <t>470309.27</t>
         </is>
       </c>
       <c r="E112" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>74868.350000000006</t>
+          <t>74868.35</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D121" s="0" t="inlineStr">
         <is>
-          <t>7060.3500000000004</t>
+          <t>7060.35</t>
         </is>
       </c>
       <c r="E121" s="0" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="D131" s="0" t="inlineStr">
         <is>
-          <t>238.66999999999999</t>
+          <t>238.67</t>
         </is>
       </c>
       <c r="E131" s="0" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="D132" s="0" t="inlineStr">
         <is>
-          <t>463.35000000000002</t>
+          <t>463.35</t>
         </is>
       </c>
       <c r="E132" s="0" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="D137" s="0" t="inlineStr">
         <is>
-          <t>366.92000000000002</t>
+          <t>366.92</t>
         </is>
       </c>
       <c r="E137" s="0" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D138" s="0" t="inlineStr">
         <is>
-          <t>683.80999999999995</t>
+          <t>683.81</t>
         </is>
       </c>
       <c r="E138" s="0" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>240329.26999999999</t>
+          <t>240329.27</t>
         </is>
       </c>
       <c r="E140" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>3226.3299999999999</t>
+          <t>3226.33</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t>4632.6700000000001</t>
+          <t>4632.67</t>
         </is>
       </c>
       <c r="E168" s="0" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="D200" s="0" t="inlineStr">
         <is>
-          <t>2359.1999999999998</t>
+          <t>2359.2</t>
         </is>
       </c>
       <c r="E200" s="0" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D205" s="0" t="inlineStr">
         <is>
-          <t>444.61000000000001</t>
+          <t>444.61</t>
         </is>
       </c>
       <c r="E205" s="0" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="D217" s="0" t="inlineStr">
         <is>
-          <t>221.36000000000001</t>
+          <t>221.36</t>
         </is>
       </c>
       <c r="E217" s="0" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>455952.15999999997</t>
+          <t>455952.16</t>
         </is>
       </c>
       <c r="E218" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>517459.96999999997</t>
+          <t>517459.97</t>
         </is>
       </c>
       <c r="E221" s="0" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="D228" s="0" t="inlineStr">
         <is>
-          <t>4392.6599999999999</t>
+          <t>4392.66</t>
         </is>
       </c>
       <c r="E228" s="0" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
-          <t>75125.970000000001</t>
+          <t>75125.97</t>
         </is>
       </c>
       <c r="E234" s="0" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>145298.70999999999</t>
+          <t>145298.71</t>
         </is>
       </c>
       <c r="E235" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>702.85000000000002</t>
+          <t>702.85</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D250" s="0" t="inlineStr">
         <is>
-          <t>693.04999999999995</t>
+          <t>693.05</t>
         </is>
       </c>
       <c r="E250" s="0" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="D285" s="0" t="inlineStr">
         <is>
-          <t>13159.129999999999</t>
+          <t>13159.13</t>
         </is>
       </c>
       <c r="E285" s="0" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>1710820.6000000001</t>
+          <t>1710820.6</t>
         </is>
       </c>
       <c r="E288" s="0" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t>2152648.9399999999</t>
+          <t>2152648.94</t>
         </is>
       </c>
       <c r="E330" s="0" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="D366" s="0" t="inlineStr">
         <is>
-          <t>9298.8799999999992</t>
+          <t>9298.88</t>
         </is>
       </c>
       <c r="E366" s="0" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="D367" s="0" t="inlineStr">
         <is>
-          <t>10280.950000000001</t>
+          <t>10280.95</t>
         </is>
       </c>
       <c r="E367" s="0" t="inlineStr">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="D369" s="0" t="inlineStr">
         <is>
-          <t>3964.3600000000001</t>
+          <t>3964.36</t>
         </is>
       </c>
       <c r="E369" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>3680.1799999999998</t>
+          <t>3680.18</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="D496" s="0" t="inlineStr">
         <is>
-          <t>1902.3299999999999</t>
+          <t>1902.33</t>
         </is>
       </c>
       <c r="E496" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>53151.169999999998</t>
+          <t>53151.17</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="D531" s="0" t="inlineStr">
         <is>
-          <t>648.29999999999995</t>
+          <t>648.3</t>
         </is>
       </c>
       <c r="E531" s="0" t="inlineStr">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="D581" s="0" t="inlineStr">
         <is>
-          <t>306.93000000000001</t>
+          <t>306.93</t>
         </is>
       </c>
       <c r="E581" s="0" t="inlineStr">
@@ -16453,7 +16453,7 @@
       </c>
       <c r="D596" s="0" t="inlineStr">
         <is>
-          <t>2493.8000000000002</t>
+          <t>2493.8</t>
         </is>
       </c>
       <c r="E596" s="0" t="inlineStr">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="D626" s="0" t="inlineStr">
         <is>
-          <t>346.08999999999997</t>
+          <t>346.09</t>
         </is>
       </c>
       <c r="E626" s="0" t="inlineStr">
@@ -17290,7 +17290,7 @@
       </c>
       <c r="D627" s="0" t="inlineStr">
         <is>
-          <t>245.66999999999999</t>
+          <t>245.67</t>
         </is>
       </c>
       <c r="E627" s="0" t="inlineStr">
